--- a/project/ACU_RMSE_LOGREG_RanFor112816.xlsx
+++ b/project/ACU_RMSE_LOGREG_RanFor112816.xlsx
@@ -940,7 +940,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B28:G38" totalsRowShown="0" dataCellStyle="Bad">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B28:G38" totalsRowShown="0">
   <autoFilter ref="B28:G38"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Model " dataCellStyle="Normal"/>
@@ -1662,7 +1662,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
